--- a/results/mp/logistic/corona/confidence/42/desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,22 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>warning</t>
   </si>
   <si>
     <t>collapse</t>
@@ -61,18 +64,24 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -82,34 +91,52 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
@@ -118,82 +145,73 @@
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>important</t>
   </si>
   <si>
     <t>protect</t>
@@ -202,22 +220,28 @@
     <t>increase</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -575,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.839041095890411</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +718,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.821917808219178</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9302325581395349</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.9164490861618799</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L8">
-        <v>351</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>351</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6944444444444444</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.9152542372881356</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5767195767195767</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.9017857142857143</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5490196078431373</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8936170212765957</v>
+        <v>0.9060052219321149</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5329457364341085</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C12">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="D12">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8773584905660378</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1168,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4067796610169492</v>
+        <v>0.5484496124031008</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,7 +1218,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.36</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C14">
         <v>27</v>
@@ -1212,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.8661971830985915</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2885906040268457</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C15">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.8625</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L15">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2166666666666667</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,244 +1336,364 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L16">
+        <v>90</v>
+      </c>
+      <c r="M16">
+        <v>90</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>0.84375</v>
+      </c>
+      <c r="L17">
+        <v>108</v>
+      </c>
+      <c r="M17">
+        <v>108</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.3154362416107382</v>
+      </c>
+      <c r="C18">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>102</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>0.84375</v>
+      </c>
+      <c r="L18">
+        <v>135</v>
+      </c>
+      <c r="M18">
+        <v>135</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.2055555555555555</v>
+      </c>
+      <c r="C19">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>286</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L19">
+        <v>67</v>
+      </c>
+      <c r="M19">
+        <v>67</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>228</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.8125</v>
+      </c>
+      <c r="L20">
+        <v>39</v>
+      </c>
+      <c r="M20">
+        <v>39</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.008421052631578947</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>0.17</v>
+      </c>
+      <c r="F21">
+        <v>0.83</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2355</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L21">
+        <v>47</v>
+      </c>
+      <c r="M21">
+        <v>47</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="L22">
+        <v>51</v>
+      </c>
+      <c r="M22">
+        <v>51</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="L23">
         <v>31</v>
       </c>
-      <c r="M16">
+      <c r="M23">
         <v>31</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>0.8414634146341463</v>
-      </c>
-      <c r="L17">
-        <v>69</v>
-      </c>
-      <c r="M17">
-        <v>69</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L18">
-        <v>48</v>
-      </c>
-      <c r="M18">
-        <v>48</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0.8205128205128205</v>
-      </c>
-      <c r="L19">
-        <v>32</v>
-      </c>
-      <c r="M19">
-        <v>32</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L20">
-        <v>27</v>
-      </c>
-      <c r="M20">
-        <v>27</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>0.7936507936507936</v>
-      </c>
-      <c r="L21">
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="M21">
-        <v>50</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L22">
-        <v>38</v>
-      </c>
-      <c r="M22">
-        <v>38</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L23">
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="L24">
-        <v>27</v>
-      </c>
-      <c r="M24">
-        <v>27</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="K25">
         <v>0.76</v>
@@ -1573,18 +1717,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="10:17">
+    <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1596,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.7441176470588236</v>
+        <v>0.7382352941176471</v>
       </c>
       <c r="L27">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M27">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1622,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K28">
         <v>0.7142857142857143</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1648,73 +1792,73 @@
         <v>0</v>
       </c>
       <c r="Q28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29">
+        <v>0.7084745762711865</v>
+      </c>
+      <c r="L29">
+        <v>209</v>
+      </c>
+      <c r="M29">
+        <v>209</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L30">
+        <v>19</v>
+      </c>
+      <c r="M30">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L29">
-        <v>20</v>
-      </c>
-      <c r="M29">
-        <v>20</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.7108843537414966</v>
-      </c>
-      <c r="L30">
-        <v>209</v>
-      </c>
-      <c r="M30">
-        <v>210</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.7071129707112971</v>
+        <v>0.6861924686192469</v>
       </c>
       <c r="L31">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M31">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1726,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.7037037037037037</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1752,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.6741573033707865</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1778,21 +1922,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.6702127659574468</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L34">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1804,21 +1948,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1830,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.6307692307692307</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L36">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1856,47 +2000,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.6097560975609756</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.6078431372549019</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1908,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.6060606060606061</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1934,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.4520547945205479</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1960,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.4102564102564102</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1986,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K42">
-        <v>0.4067796610169492</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2012,21 +2156,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K43">
-        <v>0.390625</v>
+        <v>0.421875</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2038,111 +2182,189 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>0.02838063439065109</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>34</v>
-      </c>
-      <c r="M44">
-        <v>36</v>
-      </c>
-      <c r="N44">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O44">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>1164</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K45">
-        <v>0.007132132132132132</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N45">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2645</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K46">
-        <v>0.004273504273504274</v>
+        <v>0.03085904920767306</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N46">
-        <v>0.5600000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0.4399999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>5126</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.00421094846601163</v>
+        <v>0.009391435011269721</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M47">
+        <v>36</v>
+      </c>
+      <c r="N47">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O47">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48">
+        <v>0.006019261637239166</v>
+      </c>
+      <c r="L48">
         <v>30</v>
       </c>
-      <c r="N47">
-        <v>0.7</v>
-      </c>
-      <c r="O47">
-        <v>0.3</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>4966</v>
+      <c r="M48">
+        <v>42</v>
+      </c>
+      <c r="N48">
+        <v>0.71</v>
+      </c>
+      <c r="O48">
+        <v>0.29</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>4954</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49">
+        <v>0.005565862708719851</v>
+      </c>
+      <c r="L49">
+        <v>24</v>
+      </c>
+      <c r="M49">
+        <v>40</v>
+      </c>
+      <c r="N49">
+        <v>0.6</v>
+      </c>
+      <c r="O49">
+        <v>0.4</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50">
+        <v>0.005238649592549476</v>
+      </c>
+      <c r="L50">
+        <v>27</v>
+      </c>
+      <c r="M50">
+        <v>38</v>
+      </c>
+      <c r="N50">
+        <v>0.71</v>
+      </c>
+      <c r="O50">
+        <v>0.29</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>5127</v>
       </c>
     </row>
   </sheetData>
